--- a/exercicios logica.xlsx
+++ b/exercicios logica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programação\faculdade\logica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91C4361-003A-474D-BE40-E636A2FF4550}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A46B2C-4941-4AFA-8D22-0D35E552AFD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8C99B91E-6E40-0D4E-A925-58672B2EAE51}"/>
   </bookViews>
@@ -641,7 +641,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
